--- a/biology/Botanique/Afrothismia_winkleri/Afrothismia_winkleri.xlsx
+++ b/biology/Botanique/Afrothismia_winkleri/Afrothismia_winkleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrothismia winkleri est une espèce de plantes de la famille des Burmanniaceae et du genre Afrothismia, présente en Afrique centrale, principalement au Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique winkleri rend hommage au botaniste allemand Hubert Winkler qui collecta de nombreuses plantes au Cameroun au début du XXe siècle[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique winkleri rend hommage au botaniste allemand Hubert Winkler qui collecta de nombreuses plantes au Cameroun au début du XXe siècle.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente au sud-ouest du Cameroun, sur les contreforts du mont Cameroun, au mont Koupé et dans le sanctuaire de faune sauvage de Banyang-Mbo[4].
-Les premiers spécimens ont été découverts vers 1906 sur deux sites au pied du mont Cameroun, sur le versant oriental, mais elle y est probablement éteinte, car de nouvelles recherches n'ont pas abouti[4].
-Des localisations au Nigeria et en Ouganda ont été évoquées dans le passé, mais ces spécimens ont été attribués (ou pourraient l'être) à d'autres taxons[4]. C'est le cas de Afrothismia winkleri (Engl.) Schltr. var. budongensis Cowley, observé dans la forêt de Budongo (en) en Ouganda[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente au sud-ouest du Cameroun, sur les contreforts du mont Cameroun, au mont Koupé et dans le sanctuaire de faune sauvage de Banyang-Mbo.
+Les premiers spécimens ont été découverts vers 1906 sur deux sites au pied du mont Cameroun, sur le versant oriental, mais elle y est probablement éteinte, car de nouvelles recherches n'ont pas abouti.
+Des localisations au Nigeria et en Ouganda ont été évoquées dans le passé, mais ces spécimens ont été attribués (ou pourraient l'être) à d'autres taxons. C'est le cas de Afrothismia winkleri (Engl.) Schltr. var. budongensis Cowley, observé dans la forêt de Budongo (en) en Ouganda.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est celui de la forêt tropicale de basse altitude, entre 0 et 1 200 m[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est celui de la forêt tropicale de basse altitude, entre 0 et 1 200 m.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est menacée par l'exploitation forestière et l'agriculture. Cependant, après avoir été considérée comme « en danger critique d'extinction » (CR) en 1998, elle a été requalifiée en « espèce menacée » (EN) en 2004, après la découverte de nouvelles implantations à Nyasoso, au village de Kupe et à Banyang Mbo[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est menacée par l'exploitation forestière et l'agriculture. Cependant, après avoir été considérée comme « en danger critique d'extinction » (CR) en 1998, elle a été requalifiée en « espèce menacée » (EN) en 2004, après la découverte de nouvelles implantations à Nyasoso, au village de Kupe et à Banyang Mbo.
 </t>
         </is>
       </c>
@@ -637,15 +657,17 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (20 septembre 2017)[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (20 septembre 2017) :
 variété Afrothismia winkleri var. budongensis
 variété Afrothismia winkleri var. winkleri
-Selon World Checklist of Selected Plant Families (WCSP)  (20 septembre 2017)[7] :
+Selon World Checklist of Selected Plant Families (WCSP)  (20 septembre 2017) :
 variété Afrothismia winkleri var. budongensis Cowley, Fl. Trop. E. Afr. (1988)
 variété Afrothismia winkleri var. winkleri
-Selon Tropicos                                           (20 septembre 2017)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Afrothismia winkleri var. budongensis Cowley
 variété Afrothismia winkleri var. winkleri</t>
         </is>
